--- a/HiFi-BabyHuey/BabyHuey.xlsx
+++ b/HiFi-BabyHuey/BabyHuey.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/GitRepos/amps/HiFi-BabyHuey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1A5E430F-5454-9E4F-B044-9B4DDA98AEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D3286B-4C35-D145-BC30-3BE2492821AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BabyHuey" sheetId="1" r:id="rId1"/>
+    <sheet name="BabyHuey (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="228">
   <si>
     <t>Source:</t>
   </si>
@@ -640,12 +641,87 @@
   </si>
   <si>
     <t>10r 2W</t>
+  </si>
+  <si>
+    <t>/Users/Tristan/GitRepos/amps/HiFi-BabyHuey/BabyHuey.kicad_sch</t>
+  </si>
+  <si>
+    <t>Wednesday, 29 December 2021 at 20:12:28</t>
+  </si>
+  <si>
+    <t>Eeschema (6.0.0-0)</t>
+  </si>
+  <si>
+    <t>/Applications/KiCad/KiCad.app/Contents/SharedSupport/plugins/bom_csv_grouped_by_value_with_fp.py</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:CP_Radial_D12.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C205, C210, C307, C407, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C206, C211, C304, C305, C404, C405, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C207, C306, C406, </t>
+  </si>
+  <si>
+    <t>Capacitor_THT:CP_Radial_D5.0mm_P2.50mm</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:C_Rect_L26.5mm_W8.5mm_P22.50mm_MKS4</t>
+  </si>
+  <si>
+    <t>Diode_THT:D_DO-35_SOD27_P7.62mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Resistor_THT:R_Axial_Power_L25.0mm_W9.0mm_P30.48mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R201, R202, R208, R209, R317, R318, R319, R320, R417, R418, R419, R420, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203, R205, R314, R414, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R204, R206, R312, R313, R412, R413, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R207, R212, R214, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R210, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R213, R305, R405, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R215, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV201, RV302, RV303, RV402, RV403, </t>
+  </si>
+  <si>
+    <t>R_Potentiometer_Trim</t>
+  </si>
+  <si>
+    <t>Trim-potentiometer</t>
+  </si>
+  <si>
+    <t>https://cdn-reichelt.de/documents/datenblatt/C151/RND_205-00023_DB_EN.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1493,11 +1569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2010,6 +2086,9 @@
       <c r="F25" t="s">
         <v>80</v>
       </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2698,6 +2777,1162 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196C216-68C7-3145-A63F-CDDBCF57341C}">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>173</v>
       </c>
